--- a/biology/Écologie/Sylvo-urbanisme/Sylvo-urbanisme.xlsx
+++ b/biology/Écologie/Sylvo-urbanisme/Sylvo-urbanisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sylvo-urbanisme est l'action de planter des arbres en ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des arbres sont plantés dans des zones urbaines à l'origine dépourvus d'arbres.
 </t>
@@ -542,9 +556,11 @@
           <t>Intérêts</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La présence d'arbres en villes possèdent de nombreux avantages[1],[2],[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La présence d'arbres en villes possèdent de nombreux avantages :
 captation du CO2, responsable de l'effet de serre ;
 restitution de l'oxygène ;
 réduction de la température par l'évapotranspiration ;
@@ -582,18 +598,93 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Essences utilisées
-Tous les arbres ne peuvent pas être utilisés. Lorsque l'on veut planter un arbre, il faut tenir compte dès sa plantation :
+          <t>Essences utilisées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les arbres ne peuvent pas être utilisés. Lorsque l'on veut planter un arbre, il faut tenir compte dès sa plantation :
 le volume qu'atteindra l'arbre adulte ;
 l’expansion de ses racines ;
 ses besoins en nutriments et en eau pendant toute sa vie, et donc prévoir des sols adaptés en conséquence.
 Les tailles régulières et drastiques mutilent et fragilisent l’arbre.
-Certaines essences comme le platanes produisent des composés chimiques, polluants ou irritants[4],[5].
-Entretien
-Les arbres plantés doivent être entretenus et notamment arrosés lorsque la situation l'exige[6].
-Lorsque les arbres ne sont pas entretenus, ils peuvent tomber sur des passants. En avril 2019, un enfant de 9 ans a dû être amputé après être resté coincé sous un arbre de la cour de son école[7]. En août 2023, un enfant a été tué par la chute d'un arbre sur les bords du lac de Sainte-Croix[8],[9],[10],[11].
-Taille
-Les arbres qui conviennent à la vie en ville sont ceux qui présentent des dimensions adaptées aux espaces étroits et qui offrent une bonne résistance à la pollution.
+Certaines essences comme le platanes produisent des composés chimiques, polluants ou irritants,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Entretien</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les arbres plantés doivent être entretenus et notamment arrosés lorsque la situation l'exige.
+Lorsque les arbres ne sont pas entretenus, ils peuvent tomber sur des passants. En avril 2019, un enfant de 9 ans a dû être amputé après être resté coincé sous un arbre de la cour de son école. En août 2023, un enfant a été tué par la chute d'un arbre sur les bords du lac de Sainte-Croix.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les arbres qui conviennent à la vie en ville sont ceux qui présentent des dimensions adaptées aux espaces étroits et qui offrent une bonne résistance à la pollution.
 Arbres de petite taille[note 1] :
 Amélanchier du Canada (Amelanchier canadensis), zone 2. H. : 6 m. L. : 3 m.
 Aulne européen impérial (Alnus glutinosa ‘Imperialis’), zone 4. H. : 6 m. L. : 4 m.
@@ -618,61 +709,345 @@
 Épinette du Colorado ‘Iseli Fastigiate’ (Picea pungens ‘Iseli Fastigiate’), zone 2. H. : 5 m. L. : 1,5 m.
 Pommetier de Sibérie colonnaire (Malus baccata ‘Columnaris’), zone 2. H. : 6 m. L. : 1,5 m.
 Sorbier des oiseaux fastigié (Sorbus aucuparia ‘Fastigiata’), zone 4. H. : 10 m. L. : 3 m.
-Thuya ‘Unicorn’ (Thuja occidentalis ‘Unicorn’), zone 4. H. : 3 m. L. : 1 m[12].
-Climat
-Les arbres sont sensibles au climat. Si des essences qui craignent la chaleur sont plantées, l'élévation des températures due au réchauffement climatique risquent de les tuer[13].
-Maladies
-Les arbres sont vulnérables à certains insectes, champignons et maladies[13].
-Biodiversité
-Les arbres indigènes sont des refuges pour la faune locale, les oiseaux et les pollinisateurs. Ceux venus d’ailleurs, beaucoup moins car ils gardent leur écosystème d’origine[13]. Certains arbres peuvent favoriser l'apparition d'insectes ravageurs ou dangereux, comme les chenilles processionnaires[14].
-Il existe en France un portail Sésame destiné à faciliter le choix des essences à planter[15]. Il existe aussi des outils qui permettent de suivre l'état des arbres en temps réel[16].
-Les arbres sont parfois organisés pour créer des « coulées vertes »[17].
-Méthode de plantations
-Le fait de choisir une seule essence peut fragiliser le milieu car il le rend davantage vulnérable aux maladies et aux parasites[18]. De plus, il est difficile de planter des arbres sans gêner la visibilité de la voie publique ou altérer le nombre de places de stationnement[19].
-Politique
-Plusieurs candidats à des élections dans le monde proposent de planter plus d'arbres en ville. Cela suscite le scepticisme de la part de certains urbanistes[4].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sylvo-urbanisme</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sylvo-urbanisme</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Thuya ‘Unicorn’ (Thuja occidentalis ‘Unicorn’), zone 4. H. : 3 m. L. : 1 m.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les arbres sont sensibles au climat. Si des essences qui craignent la chaleur sont plantées, l'élévation des températures due au réchauffement climatique risquent de les tuer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Maladies</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les arbres sont vulnérables à certains insectes, champignons et maladies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biodiversité</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les arbres indigènes sont des refuges pour la faune locale, les oiseaux et les pollinisateurs. Ceux venus d’ailleurs, beaucoup moins car ils gardent leur écosystème d’origine. Certains arbres peuvent favoriser l'apparition d'insectes ravageurs ou dangereux, comme les chenilles processionnaires.
+Il existe en France un portail Sésame destiné à faciliter le choix des essences à planter. Il existe aussi des outils qui permettent de suivre l'état des arbres en temps réel.
+Les arbres sont parfois organisés pour créer des « coulées vertes ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Méthode de plantations</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fait de choisir une seule essence peut fragiliser le milieu car il le rend davantage vulnérable aux maladies et aux parasites. De plus, il est difficile de planter des arbres sans gêner la visibilité de la voie publique ou altérer le nombre de places de stationnement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Politique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs candidats à des élections dans le monde proposent de planter plus d'arbres en ville. Cela suscite le scepticisme de la part de certains urbanistes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Dans les différents pays</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allemagne
-La municipalité de Berlin doit abattre des arbres qui dépérissent face aux sécheresses à répétition qui sévissent depuis quelques années. Le  problème vient du fait que les arbres manquent de place pour leurs racines[13].
-Australie
-Une étude réalisée à Melbourne a permis de démontrer que la plantation d'arbres permettait d'augmenter le norme et la variété d'insectes présents sur place[20],[21].
-Belgique
-Des initiatives sont organisés dans des écoles pour sensibiliser les enfants[22].
-France
-Des campagnes de sensibilisations sont organisés par les pouvoirs publics : des élèves d'écoles sont invités à planter des arbres[2].
-Le Cerema proposent aux communes qui le souhaitent d'être aidé dans la plantation d'arbres[23].
-Le pôle paysage Verdir note que suivant les espèces d'arbres demandées, il peut y avoir des pénuries, notamment dû au fait que les espèces cultivées ne correspondent pas toujours à celle demandées[24].
-La ville de Paris mènent plusieurs études pour végétaliser de manière cohérente les villes[25].
-La ville d'Angers est classée comme première ville verte de France[26].
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Allemagne</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La municipalité de Berlin doit abattre des arbres qui dépérissent face aux sécheresses à répétition qui sévissent depuis quelques années. Le  problème vient du fait que les arbres manquent de place pour leurs racines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Dans les différents pays</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Australie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude réalisée à Melbourne a permis de démontrer que la plantation d'arbres permettait d'augmenter le norme et la variété d'insectes présents sur place,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Dans les différents pays</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des initiatives sont organisés dans des écoles pour sensibiliser les enfants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvo-urbanisme</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Dans les différents pays</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des campagnes de sensibilisations sont organisés par les pouvoirs publics : des élèves d'écoles sont invités à planter des arbres.
+Le Cerema proposent aux communes qui le souhaitent d'être aidé dans la plantation d'arbres.
+Le pôle paysage Verdir note que suivant les espèces d'arbres demandées, il peut y avoir des pénuries, notamment dû au fait que les espèces cultivées ne correspondent pas toujours à celle demandées.
+La ville de Paris mènent plusieurs études pour végétaliser de manière cohérente les villes.
+La ville d'Angers est classée comme première ville verte de France.
 </t>
         </is>
       </c>
